--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__FamilyCombined.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__FamilyCombined.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sapindaceae</t>
+          <t>conflicting (Aceraceae vs. Sapindaceae)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amaryllidaceae</t>
+          <t>conflicting (Alliaceae vs. Amaryllidaceae)</t>
         </is>
       </c>
     </row>
